--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isobel\Desktop\Analysis\Invert_Rocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941FDA27-E715-4087-B9E8-5468866B0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA3E7F9-31A8-4DA7-A679-0C186C457B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{164ABDB3-27FE-4C10-AE6E-1569D2DA477E}"/>
+    <workbookView xWindow="15600" yWindow="2325" windowWidth="21720" windowHeight="18585" xr2:uid="{164ABDB3-27FE-4C10-AE6E-1569D2DA477E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFEF622-ABD8-457B-8567-19828CF7028E}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:C109"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
         <v>2016</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>2016</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>2019</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>2016</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>2016</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>2019</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>2019</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>2016</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>2016</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>2016</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>2019</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>2016</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>2016</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>2019</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>2019</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>2016</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>2016</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>2016</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>2016</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>2019</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>2016</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>2016</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>2019</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>2016</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>2019</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>2016</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>2016</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>2019</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>2016</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>2016</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>2019</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>2019</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>2016</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>2016</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>2019</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>2016</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>2016</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>2016</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>2016</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>2019</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>2016</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>2016</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>2019</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
         <v>2016</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>2016</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>2019</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>2016</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>2016</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>2019</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>2019</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>2016</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>2016</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>2016</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>2016</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>2019</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>2016</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>2016</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>2019</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>2019</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>2016</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>2016</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>2019</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>2016</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>2016</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>2019</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>2016</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>2016</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>2019</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>2016</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>2016</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>2019</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>2016</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
         <v>2016</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>2019</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>2016</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>2016</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>2019</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>2019</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
